--- a/tut05/output/0401ME08.xlsx
+++ b/tut05/output/0401ME08.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.816326530612244</v>
+        <v>8.82</v>
       </c>
       <c r="C6" t="n">
-        <v>9.181818181818182</v>
+        <v>9.18</v>
       </c>
       <c r="D6" t="n">
-        <v>9.085106382978724</v>
+        <v>9.09</v>
       </c>
       <c r="E6" t="n">
-        <v>8.326530612244898</v>
+        <v>8.33</v>
       </c>
       <c r="F6" t="n">
-        <v>8.652173913043478</v>
+        <v>8.65</v>
       </c>
       <c r="G6" t="n">
-        <v>8.695652173913043</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>9.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.816326530612244</v>
+        <v>8.82</v>
       </c>
       <c r="C8" t="n">
-        <v>8.989247311827956</v>
+        <v>8.99</v>
       </c>
       <c r="D8" t="n">
-        <v>9.021428571428572</v>
+        <v>9.02</v>
       </c>
       <c r="E8" t="n">
-        <v>8.841269841269842</v>
+        <v>8.84</v>
       </c>
       <c r="F8" t="n">
-        <v>8.804255319148936</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.786476868327401</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.881619937694705</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>8.922437673130194</v>
+        <v>8.92</v>
       </c>
     </row>
   </sheetData>
